--- a/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Edad-trans_orig.xlsx
@@ -566,7 +566,7 @@
         <v>8.016283423175482</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.054716546143641</v>
+        <v>8.054716546143645</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.911845900705043</v>
+        <v>7.918390158867128</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.821414876030119</v>
+        <v>7.834697357712486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.930688557175955</v>
+        <v>7.910879894399268</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.249831079248716</v>
+        <v>8.262429392486411</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.212739871529807</v>
+        <v>8.201100913866545</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.182937057398179</v>
+        <v>8.160162959713363</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>7.71230989213916</v>
+        <v>7.712309892139161</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>7.582532353461817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.645873576040116</v>
+        <v>7.645873576040117</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.550578619450242</v>
+        <v>7.55603217942495</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.469287241208786</v>
+        <v>7.466710604198701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.547013213776621</v>
+        <v>7.544714716429246</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.858624822596628</v>
+        <v>7.846272081357093</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.707030822011046</v>
+        <v>7.703705498120928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.739449811231325</v>
+        <v>7.738367996842623</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>7.39757010750544</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.364054376750896</v>
+        <v>7.364054376750894</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.380965075158716</v>
+        <v>7.380965075158715</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.302327727923976</v>
+        <v>7.295815385783347</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.285131543776126</v>
+        <v>7.287536529630328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.317734486780999</v>
+        <v>7.311843609910444</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.492236028081754</v>
+        <v>7.48561422139823</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.443638812179367</v>
+        <v>7.450529580405205</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.440443980669112</v>
+        <v>7.44152729828958</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.257775633415054</v>
+        <v>7.257775633415055</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>7.22838387370894</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.159110346103986</v>
+        <v>7.15919079038827</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.161909963657395</v>
+        <v>7.16004590691532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.178818083196703</v>
+        <v>7.17974099088948</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.347144903447127</v>
+        <v>7.351824496601154</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.306982912694754</v>
+        <v>7.296722179257323</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.300918092918675</v>
+        <v>7.304290063567993</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>6.924372888346948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.045519030340346</v>
+        <v>7.045519030340345</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.074217197463364</v>
+        <v>7.071409106568806</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.840196434966645</v>
+        <v>6.842524655275067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.986390533459473</v>
+        <v>6.986832421064166</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.247504825436121</v>
+        <v>7.245948626391885</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.010091409474563</v>
+        <v>7.000396265072207</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.10270590265076</v>
+        <v>7.102791022145476</v>
       </c>
     </row>
     <row r="19">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>7.055532319720459</v>
+        <v>7.055532319720458</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>6.942114157407484</v>
+        <v>6.942114157407485</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6.996847628029899</v>
+        <v>6.996847628029897</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.955570218128051</v>
+        <v>6.95642572063619</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.849922342507949</v>
+        <v>6.857420318429092</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.924894832531275</v>
+        <v>6.932733288908929</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.158096372883141</v>
+        <v>7.146819041979296</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.018712629588884</v>
+        <v>7.025333440783959</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.063625571316279</v>
+        <v>7.065746370405831</v>
       </c>
     </row>
     <row r="22">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>7.110076395569848</v>
+        <v>7.110076395569845</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>6.947467636390626</v>
+        <v>6.947467636390625</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>7.013246304213856</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.986451917897103</v>
+        <v>6.992417582540865</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.848892564866824</v>
+        <v>6.848727641561858</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.935731362861859</v>
+        <v>6.945127252856419</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.236287166899134</v>
+        <v>7.22679508420662</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.055091679178118</v>
+        <v>7.052450109137555</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.094233871957647</v>
+        <v>7.094500953747462</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.337598406916213</v>
+        <v>7.341291238961391</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.218789721243707</v>
+        <v>7.216885907777121</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.28753101966424</v>
+        <v>7.286301002268876</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.430677862132006</v>
+        <v>7.426649604740152</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.299776912567632</v>
+        <v>7.293277632111824</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.348131307935814</v>
+        <v>7.347672667390218</v>
       </c>
     </row>
     <row r="28">
